--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9.995752762781041E-05</v>
+        <v>5.789925963522006E-06</v>
       </c>
       <c r="E2">
-        <v>9.995752762781041E-05</v>
+        <v>5.789925963522006E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.603026194904179</v>
+        <v>0.993155480577911</v>
       </c>
       <c r="E3">
-        <v>0.603026194904179</v>
+        <v>0.993155480577911</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7.644540558801364E-30</v>
+        <v>1.163539726637278E-33</v>
       </c>
       <c r="E4">
-        <v>7.644540558801364E-30</v>
+        <v>1.163539726637278E-33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9633390716206731</v>
+        <v>0.9750184524815226</v>
       </c>
       <c r="E5">
-        <v>0.9633390716206731</v>
+        <v>0.9750184524815226</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999254689319702</v>
+        <v>0.9999354764857952</v>
       </c>
       <c r="E6">
-        <v>0.9999254689319702</v>
+        <v>0.9999354764857952</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999991333792</v>
+        <v>0.9999999999997229</v>
       </c>
       <c r="E7">
-        <v>8.666207751417687E-10</v>
+        <v>2.771116669464391E-13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.8858355903689891</v>
+        <v>0.9864200542161468</v>
       </c>
       <c r="E8">
-        <v>0.1141644096310109</v>
+        <v>0.01357994578385324</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.8133123410983939</v>
+        <v>0.8503222436505193</v>
       </c>
       <c r="E9">
-        <v>0.1866876589016061</v>
+        <v>0.1496777563494807</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9743700860237874</v>
+        <v>0.7347726701087769</v>
       </c>
       <c r="E11">
-        <v>0.02562991397621261</v>
+        <v>0.2652273298912231</v>
       </c>
       <c r="F11">
-        <v>1.408814787864685</v>
+        <v>1.880642175674438</v>
       </c>
       <c r="G11">
         <v>0.7</v>
